--- a/Python for development/Regular Expression and Text Proccessin/result.xlsx
+++ b/Python for development/Regular Expression and Text Proccessin/result.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,4578 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rs. 350.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (A)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-l</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Rs. 450.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (L)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rs. 299.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (B)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-h</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rs. 450.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (H)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rs. 750.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 5 (D)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-k</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rs. 350.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (K)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rs. 299.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (F)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-g</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rs. 350.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (G)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-princess-clump</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rs. 350.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sansevieria Silver Princess Clump</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rs. 299.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (C)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-n</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rs. 1,000.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 3 (N)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rs. 750.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sansevieria Hybrid 'Tower'</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-advance-combo-offer-of-10-m</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rs. 1,499.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 4 (M)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-103-10-sansevieria</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rs. 1,250.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>COMBO #103 (10 sansevieria)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-ballyi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rs. 450.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sansevieria Masoniana Yellow Variegated (Single Leaf)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-gracilis-clump</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rs. 199.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sansevieria Gracilis Clump</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-p</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rs. 1,000.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 4 (P)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-delhi</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rs. 250.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sansevieria Hybrid Delhi</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-o</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rs. 450.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 2 (Q)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-j</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rs. 299.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (J)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-green-single-leaf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rs. 250.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sansevieria Whale fin Green (Single Leaf)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-futura-gold</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Rs. 450.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sansevieria Trifaciata 'Futura Gold'</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-i</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rs. 350.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 4 (I)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-9</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rs. 350.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (E)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-siam-clump</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Rs. 450.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sansevieria Silver Siam Clump</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whale-fin-yellow-border-single-leaf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rs. 350.00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sansevieria Whale fin Yellow Border (Single Leaf)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-boncel</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rs. 299.00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sansevieria Mini Boncel</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-s</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rs. 399.00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 3 (S)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hu-chang</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Rs. 750.00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sansevieria Hu-Chang</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fernwood-clump</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rs. 199.00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sansevieria Fernwood Clump</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-combo-of-3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Rs. 850.00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sansevieria Francisii Combo of 3</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-crocodile-rock-clump</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Rs. 299.00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sansevieria Crocodile Rock Clump</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-brazillian-moonshine</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Rs. 599.00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SANSEVIERIA BRAZILLIAN MOONSHINE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-z</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Rs. 550.00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 3 (Z)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-5-t</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Rs. 650.00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 5 (T)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-iceman</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Rs. 600.00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sansevieria Iceman</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kirkii-silver-blue</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Rs. 300.00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sansevieria Kirkii Silver Blue</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-tower-pup</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Rs. 350.00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sansevieria Hybrid 'Tower' pup</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ghost</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Rs. 525.00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sansevieria Trifasciata 'Ghost'</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-7-v</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Rs. 575.00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 7 (V)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-yellow-variegated-tall-variety</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Rs. 850.00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sansevieria Masoniana Yellow Variegated (Tall Variety)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-boncel</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Rs. 300.00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sansevieria Silver Boncel</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-robusta-clump</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rs. 199.00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sansevieria Trifaciata Robusta Clump</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pagoda</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Rs. 299.00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sansevieria Pagoda</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sulcata-variegated</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Rs. 450.00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sansevieria Sulcata Variegated</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Rs. 750.00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>#115 Combo of 4 large Sansevieria</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-3-o</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Rs. 1,200.00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 3 (O)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-nymph-clump</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Rs. 250.00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sansevieria Silver Nymph Clump</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/117-sansevieria-combo-offer-of-5</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Rs. 999.00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>#117 Sansevieria Combo Offer Of 5</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Rs. 450.00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo of 2 Beautiful Plants</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/pinguicula-variegated-small</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Rs. 5,500.00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sansevieria Pinguicula Variegated (Small)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lavranos-23251-variegated-large</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Rs. 3,500.00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sansevieria Lavranos 23251 Variegated (Large)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-variegated</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Rs. 1,750.00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sansevieria Francisii White Variegated</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-twister-clump</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Rs. 550.00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Sansevieria Twister Clump</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Rs. 350.00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Sansevieria Boncel</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-subspicata</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Rs. 275.00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sansevieria Subspicata</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/118-sansevieria-combo-of-2-plants</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Rs. 750.00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>#118 Sansevieria COMBO OF 2 PLANTS</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-105-combo-of-4-plants</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Rs. 850.00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>COMBO #105 (combo of 4 plants)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-violet</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Rs. 775.00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sansevieria Violet</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-7-different</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Rs. 1,250.00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo of 7 Different</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-4-plants</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Rs. 999.00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo of 4 Plants</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-2-r</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Rs. 249.00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 2 (R)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sp-somalia</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Rs. 3,000.00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Sansevieria sp Somalia</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida-variegated</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Rs. 8,000.00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sansevieria Rorida Variegated</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-variegated-large</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Rs. 3,500.00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sansevieria Blue Leaf Variegated (Large)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-aslaam</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Rs. 1,150.00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Sansevieria Trifaciata 'Aslaam'</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-oil-plastic</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Rs. 1,100.00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sansevieria 'Oil Plastic'</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-small</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Rs. 250.00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Sansevieria Boncel (Small)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-laurentii</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Rs. 199.00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Sansevieria Trifaciata Laurentii</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Rs. 450.00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Sansevieria Ebracteata</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-joboa-variegated</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Rs. 2,000.00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Sansevieria Joboa Variegated</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants-1</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Rs. 750.00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sansevieria Whitney Clump of 3 large Plants</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-3-sansevieria</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Rs. 1,650.00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>#119 COMBO OF 3 SANSEVIERIA</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Rs. 999.00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Sansevieria CHAO PHARYA</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/116-combo-of-4-popular-indonesian-hybrids</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Rs. 999.00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>#116 Combo of 4 Popular Indonesian hybrids</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/115-combo-of-4-large-sansevieria-1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Rs. 750.00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>#115 Combo of 4 large Sansevieria</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Rs. 1,550.00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo (X) Offer Of 5 Variegated sansevieria</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-w</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Rs. 525.00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (W)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/112-combo-of-5-large-sansevieria</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Rs. 2,500.00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>#112 COMBO OF FIVE RARE SANSEVIERIA TRIFASCIATA of NEW GENERATION</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/110-sansevieria-combo-of-7-plants</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Rs. 1,750.00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>#110 Sansevieria COMBO OF 7 Plants</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-104-combo-of-5-sansevieria-mature-pups</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Rs. 2,000.00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>COMBO #104 ( Combo of 5 Sansevieria mature pups)</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/black-gold-compacta</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Rs. 475.00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>BLACK GOLD COMPACTA</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-3-beautiful-plants</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Rs. 675.00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo of 3 Beautiful Plants</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-masoniana-white-variegated-single-leaf</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Rs. 499.00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Sansevieria Masoniana White Variegated (Single Leaf)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rorida</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Rs. 1,300.00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sansevieria Rorida</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-stardust</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Rs. 2,750.00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Sansevieria 'Stardust'</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ballyi</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Rs. 199.00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Sansevieria Ballyi</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-silver-crown</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Rs. 275.00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sansevieria Silver Crown</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moose-1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Rs. 275.00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Sansevieria Moose</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/copy-of-sansevieria-boncel-variegated-b</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Rs. 800.00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sansevieria Boncel Variegated (B)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-variegated-a</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Rs. 650.00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Sansevieria Boncel Variegated (A)</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cleopatra</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Rs. 850.00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Sansevieria Cleopatra</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moto-clump</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Rs. 299.00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Sansevieria Moto Clump</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-a</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Rs. 3,500.00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Sansevieria Samurai Variegated (A)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-d</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Rs. 850.00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Sansevieria Blue Leaf Variegated (D)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-c</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Rs. 850.00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Sansevieria Blue Leaf Variegated (C)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-nilin-pup</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Rs. 500.00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Sansevieria Hybrid 'Nilin' pup</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-lobal-kenya</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Rs. 499.00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Sansevieria hybrid Lobal Kenya</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/120-combo-of-6-sansevieria</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Rs. 999.00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>#120 COMBO OF 6 Sansevieria</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-whitney-clump-of-3-large-plants</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Rs. 750.00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Sansevieria Whitney Clump of 3 large Plants</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/119-combo-of-5-sansevieria</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Rs. 1,150.00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>#119 COMBO OF 5 SANSEVIERIA</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cordova-variegated</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Rs. 699.00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>SANSEVIERIA CORDOVA VARIEGATED</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant-1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Rs. 1,499.00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Sansevieria Chao Pharya Large Plant</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-cinta-large-plant</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Rs. 2,299.00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Sansevieria CINTA LARGE PLANT</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-chao-pharya-large-plant</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Rs. 1,500.00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Sansevieria Chao Pharya large Plant</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-flamingo</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Rs. 750.00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Sansevieria FLAMINGO</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/114-combo-of-3-sanseveria</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Rs. 1,199.00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>#114 COMBO OF 3 SANSEVERIA</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-4-y</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Rs. 999.00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 4 (Y)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-x-offer-of-5-variegated-sansevieria-1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Rs. 1,750.00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo (X) Offer Of 5 Variegated sansevieria</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-of-eight-indonesian-hybrids-of-sansevieria-named-on-hindu-gods</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Rs. 2,999.00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>COMBO OF Eight Indonesian Hybrids of Sansevieria named on Hindu Gods and Godesses and from Hindu Mythology</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-offer-of-6-u</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Rs. 575.00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo Offer Of 6 (U)</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/s-craigii-true-form</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Rs. 1,250.00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>S. Craigii True Form</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-113-combo-of-5-sansevieria</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Rs. 1,499.00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>COMBO #113 COMBO OF 5 SANSEVIERIA</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/111-sansevieria-combo-of-4-plants</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Rs. 999.00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>#111 Sansevieria COMBO OF 4 Plants</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manjha</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Rs. 575.00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Sansevieria Manjha</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/s-lake-sibaya-variegated</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Rs. 1,499.00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>S. LAKE SIBAYA VARIEGATED</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-juleha</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Rs. 1,799.00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SANSEVIERIA JULEHA</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-var-pup</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Rs. 699.00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>MOONSHINE VAR PUP</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant-pup</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Rs. 699.00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>MOONSHINE MUTANT PUP</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-107-combo-of-4-plants</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Rs. 1,650.00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>COMBO #107 ( combo of 4 Plants)</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-106-4-beautiful-sansevieria</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Rs. 1,499.00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>COMBO #106 (4 beautiful Sansevieria)</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/seven-high-value-sansevieria-plants-as-combo</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Rs. 3,450.00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SEVEN High Value Sansevieria Plants as Combo</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francissi-variegated</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Rs. 575.00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Sansevieria Francissi variegated</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/combo-102-5-beautiful-sansevieria-pups</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Rs. 1,850.00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Combo #102 (5 BEAUTIFUL SANSEVIERIA PUPS)</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-laurantii-nbsp</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Rs. 1,650.00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Sansevieria Silver Laurantii</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-green-mermaid</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Rs. 1,950.00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>SANSEVIERIA GREEN MERMAID PUP</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-irish-bella</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Rs. 1,350.00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Sansevieria Irish Bella</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/s-dragon-scales</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Rs. 1,250.00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>S. Dragon Scales</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fighter-large-pup</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Rs. 499.00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Sansevieria Fighter large Pup</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-silver-sulfer</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Rs. 799.00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Sansevieria Silver Sulfer</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rahwana-large</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Rs. 1,250.00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Sansevieria Rahwana large</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-kesya</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Rs. 1,250.00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Sansevieria KESYA</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-argopuro-with-mature-pup</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Rs. 1,500.00</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Sansevieria Argopuro with mature pup</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-bella-silver</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Rs. 999.00</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Sansevieria BELLA SILVER</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-combo-of-2-beautiful-plants-black-ants-and-silver-boncel</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Rs. 575.00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Sansevieria Combo of 2 Beautiful Plants Black ants and Silver Boncel</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Not Valid</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/moonshine-mutant</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Rs. 1,100.00</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Moonshine Mutant</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hahnii-gaster</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Rs. 650.00</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Sansevieria Hahnii Gaster</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-banana</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Rs. 1,250.00</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Sansevieria 'Blue' Banana</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-banana</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Rs. 850.00</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Sansevieria 'Fat' Banana</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-green-arrow</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Rs. 699.00</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Sansevieria Trifaciata 'Green Arrow'</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-trifaciata-banded-nelsonii</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Rs. 1,100.00</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Sansevieria Trifaciata 'Banded Nelsonii'</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-black-ant</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Rs. 3,500.00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sansevieria Hybrid 'Black Ant'</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-fighter</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Rs. 600.00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Sansevieria Hybrid 'Fighter'</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-cell</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Rs. 650.00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Sansevieria 'Pink Cell'</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Rs. 2,000.00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sansevieria Hybrid 'Kasih'</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih-offshoot-of-large-mother-plant</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Rs. 1,000.00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Sansevieria Hybrid 'Kasih' Offshoot of Large Specimen</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-kasih</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Rs. 600.00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Sansevieria Hybrid 'Kasih'</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-sunflower</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Rs. 1,499.00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Sansevieria 'Sunflower'</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hawaiian-star-single-leaf</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Rs. 499.00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Sansevieria Hawaiian Star (Single Leaf)</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii-white-yellow</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Rs. 1,650.00</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Sansevieria Francisii Yellow Variegated</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-francisii</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Rs. 250.00</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Sansevieria Francisii</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum-cross</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Rs. 650.00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Sansevieria Boncel Plantinum Cross</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-boncel-plantinum</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Rs. 699.00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Sansevieria Boncel Plantinum</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-manee</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Rs. 350.00</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Sansevieria Manee</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-rocker</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Rs. 5,000.00</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Sansevieria Rocker</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-pink-boncel</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Rs. 600.00</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Sansevieria Pink Boncel</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-meena</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Rs. 750.00</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Sansevieria Meena</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-mini-gold</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Rs. 850.00</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Sansevieria Mini Gold</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-snow-boy</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Rs. 1,850.00</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Sansevieria Snow Boy</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-fat-man</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Rs. 1,450.00</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Sansevieria Fat Man</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ming-manee</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Rs. 850.00</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Sansevieria Ming Manee</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-ebracteata-variegated</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Rs. 1,150.00</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Sansevieria Ebracteata Variegated</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-hybrid-jatayu</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Rs. 1,750.00</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Sansevieria Hybrid 'Jatayu'</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-moonshine-mutant</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Rs. 1,250.00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Sansevieria Moonshine Mutant</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-samurai-variegated-b</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Rs. 3,500.00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Sansevieria Samurai Variegated (B)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-b</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Rs. 850.00</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Sansevieria Blue Leaf Variegated (B)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-blue-leaf-variegated-a</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Rs. 850.00</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Sansevieria Blue Leaf Variegated (A)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Variegated</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://fermosaplants.com/collections/sansevieria/products/sansevieria-nilin</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Rs. 1,750.00</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Sansevieria Hybrid 'Nilin'</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Not Varigeted</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>